--- a/specifics/QM2-22-WiSe-Modulverlauf.xlsx
+++ b/specifics/QM2-22-WiSe-Modulverlauf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/start-bayes/specifics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679675E2-47B7-3440-961C-78666A6B98B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51E7FE4-CB32-BE4B-8C72-1D8306DB3A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16900" xr2:uid="{B4BA407F-7EF6-F641-926D-2394B79BC202}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>Wahrscheinlichkeit</t>
   </si>
   <si>
-    <t>Hallo, Bayes</t>
-  </si>
-  <si>
     <t>Die Post befragen</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Metrische AV</t>
   </si>
   <si>
-    <t>Fallstudien</t>
-  </si>
-  <si>
     <t>Kausalinferenz 1</t>
   </si>
   <si>
@@ -137,6 +131,12 @@
   </si>
   <si>
     <t>9. Jan. 23 - 13. Jan. 23</t>
+  </si>
+  <si>
+    <t>Verteilungen</t>
+  </si>
+  <si>
+    <t>Globusversuch</t>
   </si>
 </sst>
 </file>
@@ -500,12 +500,13 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -531,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -545,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -553,10 +554,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -564,10 +565,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -575,10 +576,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -586,21 +587,18 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -608,10 +606,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -619,10 +617,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -630,10 +631,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -641,10 +642,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -652,18 +653,18 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -671,10 +672,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/specifics/QM2-22-WiSe-Modulverlauf.xlsx
+++ b/specifics/QM2-22-WiSe-Modulverlauf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/start-bayes/specifics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51E7FE4-CB32-BE4B-8C72-1D8306DB3A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCF799C-877D-744A-9403-8336FD060606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16900" xr2:uid="{B4BA407F-7EF6-F641-926D-2394B79BC202}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Nr</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Kausalinferenz 2</t>
   </si>
   <si>
-    <t>Binäre AV</t>
-  </si>
-  <si>
     <t>Abschluss</t>
   </si>
   <si>
@@ -137,6 +134,12 @@
   </si>
   <si>
     <t>Globusversuch</t>
+  </si>
+  <si>
+    <t>Fallstudien</t>
+  </si>
+  <si>
+    <t>Ab diese Woche benötigen wir rstanarm.</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -546,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -554,10 +557,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -565,10 +568,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -579,7 +582,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -590,15 +596,18 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -609,7 +618,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -620,9 +629,6 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -634,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -645,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,18 +659,18 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
         <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -672,10 +678,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/specifics/QM2-22-WiSe-Modulverlauf.xlsx
+++ b/specifics/QM2-22-WiSe-Modulverlauf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/start-bayes/specifics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCF799C-877D-744A-9403-8336FD060606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98A52E6-8F07-4647-A422-E569C7295521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16900" xr2:uid="{B4BA407F-7EF6-F641-926D-2394B79BC202}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>Kommentar</t>
   </si>
   <si>
-    <t>Die erste Unterrichtsstunde fällt auf den 7. Okt. 2023.</t>
-  </si>
-  <si>
     <t>Was ist Inferenz?</t>
   </si>
   <si>
@@ -139,7 +136,10 @@
     <t>Fallstudien</t>
   </si>
   <si>
-    <t>Ab diese Woche benötigen wir rstanarm.</t>
+    <t>Erster Termin: 4. Okt. 22, 14.15-15.00</t>
+  </si>
+  <si>
+    <t>Ab diese Woche benötigen wir rstanarm. Am Do., 3. 11. entfällt die Übung.</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,13 +532,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -546,10 +546,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,10 +557,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -568,10 +568,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -579,10 +579,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -593,21 +593,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -615,10 +615,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -637,10 +637,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -648,10 +648,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -659,18 +659,18 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -678,10 +678,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/specifics/QM2-22-WiSe-Modulverlauf.xlsx
+++ b/specifics/QM2-22-WiSe-Modulverlauf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/start-bayes/specifics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98A52E6-8F07-4647-A422-E569C7295521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCBB9DF-0BC8-EE4F-8897-292BAB8780B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16900" xr2:uid="{B4BA407F-7EF6-F641-926D-2394B79BC202}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Nr</t>
   </si>
@@ -133,13 +133,16 @@
     <t>Globusversuch</t>
   </si>
   <si>
-    <t>Fallstudien</t>
-  </si>
-  <si>
     <t>Erster Termin: 4. Okt. 22, 14.15-15.00</t>
   </si>
   <si>
-    <t>Ab diese Woche benötigen wir rstanarm. Am Do., 3. 11. entfällt die Übung.</t>
+    <t>Ab diese Woche benötigen wir rstanarm.</t>
+  </si>
+  <si>
+    <t>Am Di., 1.11. entfällt die Vorlesung. Am Do., 3. 11. entfällt die Übung.</t>
+  </si>
+  <si>
+    <t>Aufhol-Woche</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +541,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -579,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -593,10 +596,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -615,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -626,7 +632,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -637,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -648,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -659,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>

--- a/specifics/QM2-22-WiSe-Modulverlauf.xlsx
+++ b/specifics/QM2-22-WiSe-Modulverlauf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/start-bayes/specifics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCBB9DF-0BC8-EE4F-8897-292BAB8780B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2B8256-A4E2-2B47-9445-180826EA9C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16900" xr2:uid="{B4BA407F-7EF6-F641-926D-2394B79BC202}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nr</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Wahrscheinlichkeit</t>
   </si>
   <si>
-    <t>Die Post befragen</t>
-  </si>
-  <si>
     <t>Gauss-Modelle</t>
   </si>
   <si>
@@ -76,12 +73,6 @@
     <t>Abschluss</t>
   </si>
   <si>
-    <t>BLOCKWOCKE</t>
-  </si>
-  <si>
-    <t>Kein regulärer Unterricht</t>
-  </si>
-  <si>
     <t>28. Nov. - 2. Dez. 22</t>
   </si>
   <si>
@@ -118,12 +109,6 @@
     <t>19. - 23. Dez. 22</t>
   </si>
   <si>
-    <t>WEIHNACHTSFERIEN</t>
-  </si>
-  <si>
-    <t>Kein Unterricht</t>
-  </si>
-  <si>
     <t>9. Jan. 23 - 13. Jan. 23</t>
   </si>
   <si>
@@ -143,6 +128,15 @@
   </si>
   <si>
     <t>Aufhol-Woche</t>
+  </si>
+  <si>
+    <t>Blockwoche: Kein regulärer Unterricht</t>
+  </si>
+  <si>
+    <t>Jahreswechsel: Kein Unterricht</t>
+  </si>
+  <si>
+    <t>Frag die Post</t>
   </si>
 </sst>
 </file>
@@ -506,7 +500,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -552,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -560,10 +554,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -571,10 +565,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -582,13 +576,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -596,24 +590,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -621,10 +612,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -632,10 +623,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -643,10 +634,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -654,10 +645,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -665,18 +656,15 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -684,10 +672,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
